--- a/pred_ohlcv/54_21/2020-01-13 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 ETZ ohlcv.xlsx
@@ -1770,7 +1770,7 @@
         <v>-113483.5242242995</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-113483.5242242995</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-113483.5242242995</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-113483.5242242995</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-126320.7231242995</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-120670.7231242995</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-169464.3409722616</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-169464.3409722616</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-180611.3409722616</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-180611.3409722616</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-186583.9786722616</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-161977.7437722616</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-646672.8367722617</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-646632.8367722617</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-647812.8061722616</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-665086.8061722616</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-732560.5991722615</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-2088752.630797812</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-2078650.804597812</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-2104281.381297811</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-2084875.370881776</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1835074.165797811</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1834600.711997811</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1824464.756097812</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1689068.93873988</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1276612.291520391</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1327138.809784434</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1340119.170784434</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1372144.150184434</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1486636.823484434</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1486636.823484434</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1476320.142984434</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1476320.142984434</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-138983.5503476338</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>59615.41870459073</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-275702.6015954092</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-370598.3835954092</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-591519.5497954092</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-1502309.88289177</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-1944711.192703126</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 ETZ ohlcv.xlsx
@@ -1770,7 +1770,7 @@
         <v>-113483.5242242995</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-113483.5242242995</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-113483.5242242995</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-113483.5242242995</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-126320.7231242995</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-120670.7231242995</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-169464.3409722616</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-169464.3409722616</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-180611.3409722616</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-180611.3409722616</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-186583.9786722616</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-161977.7437722616</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-646672.8367722617</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-646632.8367722617</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-647812.8061722616</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-665086.8061722616</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-732560.5991722615</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-2671243.276697812</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-2416340.170497812</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-2411536.571897812</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2409872.779997812</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-2088752.630797812</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-2078650.804597812</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-2104281.381297811</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-2084875.370881776</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1835074.165797811</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1834600.711997811</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1824464.756097812</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1689068.93873988</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1276612.291520391</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1327138.809784434</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1340119.170784434</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1372144.150184434</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1486636.823484434</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1486636.823484434</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1476320.142984434</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1476320.142984434</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-138983.5503476338</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>59615.41870459073</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-275702.6015954092</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-370598.3835954092</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-1502309.88289177</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-1944711.192703126</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
